--- a/advisors_extended.xlsx
+++ b/advisors_extended.xlsx
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Linda Johnson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1050,7 +1050,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Olivia Garcia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3501,7 +3501,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sarah Lee</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">

--- a/advisors_extended.xlsx
+++ b/advisors_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -822,7 +822,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Emily Davis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3615,7 +3615,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3729,7 +3729,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Olivia Garcia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3786,7 +3786,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3900,7 +3900,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4014,7 +4014,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4071,7 +4071,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Linda Johnson</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Emily Davis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4185,7 +4185,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4242,7 +4242,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4299,7 +4299,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Michael Chen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4413,7 +4413,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>James Miller</t>
+          <t>Priya Patel</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4979,6 +4979,4476 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michael_0 Chen</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NEW1000</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>231642</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>87</v>
+      </c>
+      <c r="J80" t="n">
+        <v>35</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Sarah Lee</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Priya_1 Patel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NEW1001</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>476079</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+      <c r="I81" t="n">
+        <v>71</v>
+      </c>
+      <c r="J81" t="n">
+        <v>188</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Robert Wilson</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Robert Wilson</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Robert Wilson</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Emily_2 Davis</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NEW1002</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1778563</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>22</v>
+      </c>
+      <c r="I82" t="n">
+        <v>94</v>
+      </c>
+      <c r="J82" t="n">
+        <v>118</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michael_3 Chen</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NEW1003</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>249116</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>85</v>
+      </c>
+      <c r="J83" t="n">
+        <v>100</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Olivia_4 Garcia</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NEW1004</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>137392</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+      <c r="I84" t="n">
+        <v>57</v>
+      </c>
+      <c r="J84" t="n">
+        <v>67</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michael_5 Chen</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NEW1005</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>568930</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>69</v>
+      </c>
+      <c r="J85" t="n">
+        <v>117</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Olivia_6 Garcia</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NEW1006</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1128851</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>66</v>
+      </c>
+      <c r="J86" t="n">
+        <v>63</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>David_7 Brown</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NEW1007</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>379298</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>28</v>
+      </c>
+      <c r="I87" t="n">
+        <v>82</v>
+      </c>
+      <c r="J87" t="n">
+        <v>131</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>David_8 Brown</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NEW1008</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>577627</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>11</v>
+      </c>
+      <c r="I88" t="n">
+        <v>78</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Olivia_9 Garcia</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NEW1009</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>647112</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>22</v>
+      </c>
+      <c r="I89" t="n">
+        <v>60</v>
+      </c>
+      <c r="J89" t="n">
+        <v>86</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>David_10 Brown</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NEW1010</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1099653</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>22</v>
+      </c>
+      <c r="I90" t="n">
+        <v>67</v>
+      </c>
+      <c r="J90" t="n">
+        <v>119</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michael_11 Chen</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>NEW1011</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>426631</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>24</v>
+      </c>
+      <c r="I91" t="n">
+        <v>84</v>
+      </c>
+      <c r="J91" t="n">
+        <v>204</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Emily_12 Davis</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NEW1012</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>264550</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>16</v>
+      </c>
+      <c r="I92" t="n">
+        <v>74</v>
+      </c>
+      <c r="J92" t="n">
+        <v>183</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>David_13 Brown</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NEW1013</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>216769</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+      <c r="I93" t="n">
+        <v>61</v>
+      </c>
+      <c r="J93" t="n">
+        <v>150</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>David_14 Brown</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NEW1014</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1103115</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>30</v>
+      </c>
+      <c r="I94" t="n">
+        <v>84</v>
+      </c>
+      <c r="J94" t="n">
+        <v>186</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Priya_15 Patel</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NEW1015</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1866090</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>61</v>
+      </c>
+      <c r="J95" t="n">
+        <v>99</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Olivia_16 Garcia</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NEW1016</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>290209</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>77</v>
+      </c>
+      <c r="J96" t="n">
+        <v>59</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Emily_17 Davis</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NEW1017</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1350453</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>24</v>
+      </c>
+      <c r="I97" t="n">
+        <v>95</v>
+      </c>
+      <c r="J97" t="n">
+        <v>96</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Emily_18 Davis</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NEW1018</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2195373</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>23</v>
+      </c>
+      <c r="I98" t="n">
+        <v>70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>138</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michael_19 Chen</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>NEW1019</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>543213</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>23</v>
+      </c>
+      <c r="I99" t="n">
+        <v>90</v>
+      </c>
+      <c r="J99" t="n">
+        <v>93</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michael_20 Chen</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NEW1020</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>429149</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>26</v>
+      </c>
+      <c r="I100" t="n">
+        <v>96</v>
+      </c>
+      <c r="J100" t="n">
+        <v>71</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michael_21 Chen</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>NEW1021</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1575315</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" t="n">
+        <v>70</v>
+      </c>
+      <c r="J101" t="n">
+        <v>114</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michael_22 Chen</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>NEW1022</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>732902</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>96</v>
+      </c>
+      <c r="J102" t="n">
+        <v>144</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michael_23 Chen</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NEW1023</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1426509</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>12</v>
+      </c>
+      <c r="I103" t="n">
+        <v>84</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michael_24 Chen</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>NEW1024</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>739876</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>29</v>
+      </c>
+      <c r="I104" t="n">
+        <v>62</v>
+      </c>
+      <c r="J104" t="n">
+        <v>37</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michael_25 Chen</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>NEW1025</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1190846</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>22</v>
+      </c>
+      <c r="I105" t="n">
+        <v>91</v>
+      </c>
+      <c r="J105" t="n">
+        <v>147</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michael_26 Chen</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>NEW1026</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1258133</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>13</v>
+      </c>
+      <c r="I106" t="n">
+        <v>93</v>
+      </c>
+      <c r="J106" t="n">
+        <v>107</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michael_27 Chen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>NEW1027</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1295679</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>89</v>
+      </c>
+      <c r="J107" t="n">
+        <v>74</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michael_28 Chen</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NEW1028</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1166304</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>24</v>
+      </c>
+      <c r="I108" t="n">
+        <v>83</v>
+      </c>
+      <c r="J108" t="n">
+        <v>108</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michael_29 Chen</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>NEW1029</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2085563</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>24</v>
+      </c>
+      <c r="I109" t="n">
+        <v>96</v>
+      </c>
+      <c r="J109" t="n">
+        <v>123</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Priya_30 Patel</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>NEW1030</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>658815</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>19</v>
+      </c>
+      <c r="I110" t="n">
+        <v>91</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Priya_31 Patel</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>NEW1031</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1747350</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" t="n">
+        <v>72</v>
+      </c>
+      <c r="J111" t="n">
+        <v>29</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Priya_32 Patel</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>NEW1032</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>872632</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>25</v>
+      </c>
+      <c r="I112" t="n">
+        <v>70</v>
+      </c>
+      <c r="J112" t="n">
+        <v>179</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Priya_33 Patel</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NEW1033</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>472066</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>61</v>
+      </c>
+      <c r="J113" t="n">
+        <v>151</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Priya_34 Patel</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>NEW1034</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>401510</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>15</v>
+      </c>
+      <c r="I114" t="n">
+        <v>87</v>
+      </c>
+      <c r="J114" t="n">
+        <v>100</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Priya_35 Patel</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>NEW1035</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1710566</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="n">
+        <v>94</v>
+      </c>
+      <c r="J115" t="n">
+        <v>43</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Priya_36 Patel</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>NEW1036</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>631335</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>19</v>
+      </c>
+      <c r="I116" t="n">
+        <v>70</v>
+      </c>
+      <c r="J116" t="n">
+        <v>131</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Priya_37 Patel</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>NEW1037</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1549212</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>90</v>
+      </c>
+      <c r="J117" t="n">
+        <v>16</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Priya_38 Patel</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>NEW1038</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>653912</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" t="n">
+        <v>85</v>
+      </c>
+      <c r="J118" t="n">
+        <v>179</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Priya_39 Patel</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>NEW1039</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1678274</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>20</v>
+      </c>
+      <c r="I119" t="n">
+        <v>65</v>
+      </c>
+      <c r="J119" t="n">
+        <v>30</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>David_40 Brown</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>NEW1040</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>421308</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>14</v>
+      </c>
+      <c r="I120" t="n">
+        <v>89</v>
+      </c>
+      <c r="J120" t="n">
+        <v>135</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>David_41 Brown</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>NEW1041</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1135629</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>20</v>
+      </c>
+      <c r="I121" t="n">
+        <v>100</v>
+      </c>
+      <c r="J121" t="n">
+        <v>192</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>David_42 Brown</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>NEW1042</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2016665</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>28</v>
+      </c>
+      <c r="I122" t="n">
+        <v>94</v>
+      </c>
+      <c r="J122" t="n">
+        <v>180</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>David_43 Brown</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>NEW1043</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1128187</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>11</v>
+      </c>
+      <c r="I123" t="n">
+        <v>79</v>
+      </c>
+      <c r="J123" t="n">
+        <v>38</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>David_44 Brown</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>NEW1044</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1132227</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+      <c r="I124" t="n">
+        <v>89</v>
+      </c>
+      <c r="J124" t="n">
+        <v>157</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>David_45 Brown</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>NEW1045</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>931371</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>12</v>
+      </c>
+      <c r="I125" t="n">
+        <v>75</v>
+      </c>
+      <c r="J125" t="n">
+        <v>151</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>David_46 Brown</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NEW1046</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1093295</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>32</v>
+      </c>
+      <c r="I126" t="n">
+        <v>87</v>
+      </c>
+      <c r="J126" t="n">
+        <v>194</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Emily_47 Davis</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>NEW1047</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1321287</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>14</v>
+      </c>
+      <c r="I127" t="n">
+        <v>86</v>
+      </c>
+      <c r="J127" t="n">
+        <v>11</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Emily_48 Davis</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>NEW1048</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1591938</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+      <c r="I128" t="n">
+        <v>85</v>
+      </c>
+      <c r="J128" t="n">
+        <v>161</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Emily_49 Davis</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>NEW1049</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>262161</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>24</v>
+      </c>
+      <c r="I129" t="n">
+        <v>78</v>
+      </c>
+      <c r="J129" t="n">
+        <v>60</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Emily_50 Davis</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NEW1050</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>326281</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>20</v>
+      </c>
+      <c r="I130" t="n">
+        <v>96</v>
+      </c>
+      <c r="J130" t="n">
+        <v>132</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Emily_51 Davis</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>NEW1051</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1643203</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+      <c r="I131" t="n">
+        <v>61</v>
+      </c>
+      <c r="J131" t="n">
+        <v>163</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Michael_52 Chen</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>NEW1052</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1101607</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>73</v>
+      </c>
+      <c r="J132" t="n">
+        <v>22</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>David_53 Brown</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>NEW1053</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1527107</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>11</v>
+      </c>
+      <c r="I133" t="n">
+        <v>85</v>
+      </c>
+      <c r="J133" t="n">
+        <v>169</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Priya_54 Patel</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NEW1054</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>547820</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>21</v>
+      </c>
+      <c r="I134" t="n">
+        <v>75</v>
+      </c>
+      <c r="J134" t="n">
+        <v>143</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Emily_55 Davis</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NEW1055</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1720666</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>16</v>
+      </c>
+      <c r="I135" t="n">
+        <v>92</v>
+      </c>
+      <c r="J135" t="n">
+        <v>147</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Olivia_56 Garcia</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>NEW1056</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1437140</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>29</v>
+      </c>
+      <c r="I136" t="n">
+        <v>72</v>
+      </c>
+      <c r="J136" t="n">
+        <v>133</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michael_57 Chen</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>NEW1057</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1214421</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>14</v>
+      </c>
+      <c r="I137" t="n">
+        <v>74</v>
+      </c>
+      <c r="J137" t="n">
+        <v>132</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Priya_58 Patel</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>NEW1058</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>314972</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>22</v>
+      </c>
+      <c r="I138" t="n">
+        <v>75</v>
+      </c>
+      <c r="J138" t="n">
+        <v>22</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Priya_59 Patel</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>NEW1059</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>447173</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>29</v>
+      </c>
+      <c r="I139" t="n">
+        <v>77</v>
+      </c>
+      <c r="J139" t="n">
+        <v>22</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>David_60 Brown</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>NEW1060</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1642401</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>24</v>
+      </c>
+      <c r="I140" t="n">
+        <v>66</v>
+      </c>
+      <c r="J140" t="n">
+        <v>120</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michael_61 Chen</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NEW1061</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>266718</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>14</v>
+      </c>
+      <c r="I141" t="n">
+        <v>59</v>
+      </c>
+      <c r="J141" t="n">
+        <v>191</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michael_62 Chen</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NEW1062</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1881659</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>25</v>
+      </c>
+      <c r="I142" t="n">
+        <v>76</v>
+      </c>
+      <c r="J142" t="n">
+        <v>167</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Emily_63 Davis</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>NEW1063</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1189032</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+      <c r="I143" t="n">
+        <v>77</v>
+      </c>
+      <c r="J143" t="n">
+        <v>97</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>David_64 Brown</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>NEW1064</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>459966</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>27</v>
+      </c>
+      <c r="I144" t="n">
+        <v>75</v>
+      </c>
+      <c r="J144" t="n">
+        <v>176</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Priya_65 Patel</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>NEW1065</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1840736</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>26</v>
+      </c>
+      <c r="I145" t="n">
+        <v>59</v>
+      </c>
+      <c r="J145" t="n">
+        <v>156</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michael_66 Chen</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>NEW1066</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>401919</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>CFA</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>20</v>
+      </c>
+      <c r="I146" t="n">
+        <v>55</v>
+      </c>
+      <c r="J146" t="n">
+        <v>97</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Michael_67 Chen</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>NEW1067</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1760797</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+      <c r="I147" t="n">
+        <v>95</v>
+      </c>
+      <c r="J147" t="n">
+        <v>74</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Priya_68 Patel</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>NEW1068</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1195451</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Estate Planning</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>81</v>
+      </c>
+      <c r="J148" t="n">
+        <v>100</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Olivia_69 Garcia</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>NEW1069</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1165508</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>30</v>
+      </c>
+      <c r="I149" t="n">
+        <v>70</v>
+      </c>
+      <c r="J149" t="n">
+        <v>173</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Olivia_70 Garcia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>NEW1070</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>434429</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+      <c r="I150" t="n">
+        <v>75</v>
+      </c>
+      <c r="J150" t="n">
+        <v>49</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Individual</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Olivia_71 Garcia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>NEW1071</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>108104</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>25</v>
+      </c>
+      <c r="I151" t="n">
+        <v>82</v>
+      </c>
+      <c r="J151" t="n">
+        <v>34</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Olivia_72 Garcia</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>NEW1072</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>518403</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Tax Advisory</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>22</v>
+      </c>
+      <c r="I152" t="n">
+        <v>97</v>
+      </c>
+      <c r="J152" t="n">
+        <v>91</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Multi-generational</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Olivia_73 Garcia</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>NEW1073</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>57946</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+      <c r="I153" t="n">
+        <v>83</v>
+      </c>
+      <c r="J153" t="n">
+        <v>170</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Olivia_74 Garcia</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>NEW1074</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>432117</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>15</v>
+      </c>
+      <c r="I154" t="n">
+        <v>92</v>
+      </c>
+      <c r="J154" t="n">
+        <v>182</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Priya_37 Patel</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NEW1075</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2192831</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>FINRA</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>24</v>
+      </c>
+      <c r="I155" t="n">
+        <v>59</v>
+      </c>
+      <c r="J155" t="n">
+        <v>75</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Trust</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Olivia_76 Garcia</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>NEW1076</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1333355</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>High Net Worth</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Spanish</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>23</v>
+      </c>
+      <c r="I156" t="n">
+        <v>59</v>
+      </c>
+      <c r="J156" t="n">
+        <v>137</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Joint</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Olivia_77 Garcia</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>NEW1077</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1537677</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Retirement Planning</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>CFP</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+      <c r="I157" t="n">
+        <v>94</v>
+      </c>
+      <c r="J157" t="n">
+        <v>164</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/advisors_extended.xlsx
+++ b/advisors_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,6 @@
           <t>Final Advisor_y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Final Advisor</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -573,11 +568,6 @@
           <t>Sarah Lee</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Sarah Lee</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -642,11 +632,6 @@
           <t>Robert Wilson</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Robert Wilson</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -703,7 +688,6 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -760,7 +744,6 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -817,7 +800,6 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -874,7 +856,6 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -931,7 +912,6 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -988,7 +968,6 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1045,7 +1024,6 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1102,7 +1080,6 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1159,7 +1136,6 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1216,7 +1192,6 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1273,7 +1248,6 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1330,7 +1304,6 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1387,7 +1360,6 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1444,7 +1416,6 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1501,7 +1472,6 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1558,7 +1528,6 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1615,7 +1584,6 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1672,7 +1640,6 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1729,7 +1696,6 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1786,7 +1752,6 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1843,7 +1808,6 @@
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1900,7 +1864,6 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1957,7 +1920,6 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2014,7 +1976,6 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2071,7 +2032,6 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2128,7 +2088,6 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2185,7 +2144,6 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2242,7 +2200,6 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2299,7 +2256,6 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2356,7 +2312,6 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2413,7 +2368,6 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2470,7 +2424,6 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2527,7 +2480,6 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2584,7 +2536,6 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2641,7 +2592,6 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2698,7 +2648,6 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2755,7 +2704,6 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2812,7 +2760,6 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2869,7 +2816,6 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2926,7 +2872,6 @@
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2983,7 +2928,6 @@
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3040,7 +2984,6 @@
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3097,7 +3040,6 @@
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3154,7 +3096,6 @@
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3211,7 +3152,6 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3268,7 +3208,6 @@
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3325,7 +3264,6 @@
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3382,7 +3320,6 @@
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3439,7 +3376,6 @@
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3496,7 +3432,6 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3553,7 +3488,6 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3610,7 +3544,6 @@
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3667,7 +3600,6 @@
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3724,7 +3656,6 @@
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3781,7 +3712,6 @@
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3838,7 +3768,6 @@
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3895,7 +3824,6 @@
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3952,7 +3880,6 @@
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4009,7 +3936,6 @@
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4066,7 +3992,6 @@
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4123,7 +4048,6 @@
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4180,7 +4104,6 @@
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4237,7 +4160,6 @@
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4294,7 +4216,6 @@
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4351,7 +4272,6 @@
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4408,7 +4328,6 @@
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4465,7 +4384,6 @@
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4522,7 +4440,6 @@
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4579,7 +4496,6 @@
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4636,7 +4552,6 @@
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4693,7 +4608,6 @@
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4750,7 +4664,6 @@
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4807,7 +4720,6 @@
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4864,7 +4776,6 @@
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4921,7 +4832,6 @@
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4978,7 +4888,6 @@
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5043,16 +4952,11 @@
           <t>Sarah Lee</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Sarah Lee</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Priya_1 Patel</t>
+          <t>Michael_61 Chen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5112,11 +5016,6 @@
           <t>Robert Wilson</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Robert Wilson</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5173,7 +5072,6 @@
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5230,7 +5128,6 @@
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5287,7 +5184,6 @@
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5344,7 +5240,6 @@
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5401,7 +5296,6 @@
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5458,7 +5352,6 @@
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5515,7 +5408,6 @@
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5572,7 +5464,6 @@
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5629,7 +5520,6 @@
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5686,7 +5576,6 @@
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5743,7 +5632,6 @@
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5800,7 +5688,6 @@
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5857,7 +5744,6 @@
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5914,7 +5800,6 @@
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5971,7 +5856,6 @@
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6028,7 +5912,6 @@
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6085,7 +5968,6 @@
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6142,7 +6024,6 @@
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6199,7 +6080,6 @@
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6256,7 +6136,6 @@
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6313,7 +6192,6 @@
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6370,7 +6248,6 @@
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6427,7 +6304,6 @@
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6484,7 +6360,6 @@
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6541,7 +6416,6 @@
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6598,7 +6472,6 @@
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6655,7 +6528,6 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6712,7 +6584,6 @@
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6769,7 +6640,6 @@
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6826,7 +6696,6 @@
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6883,7 +6752,6 @@
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6940,7 +6808,6 @@
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6997,7 +6864,6 @@
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7054,7 +6920,6 @@
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7111,7 +6976,6 @@
       </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7168,7 +7032,6 @@
       </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7225,7 +7088,6 @@
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7282,7 +7144,6 @@
       </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7339,7 +7200,6 @@
       </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7396,7 +7256,6 @@
       </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7453,7 +7312,6 @@
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7510,7 +7368,6 @@
       </c>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7567,7 +7424,6 @@
       </c>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7624,7 +7480,6 @@
       </c>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7681,7 +7536,6 @@
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7738,7 +7592,6 @@
       </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7795,7 +7648,6 @@
       </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7852,7 +7704,6 @@
       </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7909,7 +7760,6 @@
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7966,7 +7816,6 @@
       </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8023,7 +7872,6 @@
       </c>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8080,7 +7928,6 @@
       </c>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8137,7 +7984,6 @@
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8194,7 +8040,6 @@
       </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8251,7 +8096,6 @@
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8308,7 +8152,6 @@
       </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8365,7 +8208,6 @@
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8422,7 +8264,6 @@
       </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8479,7 +8320,6 @@
       </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8536,7 +8376,6 @@
       </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8593,7 +8432,6 @@
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8650,7 +8488,6 @@
       </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8707,7 +8544,6 @@
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8764,7 +8600,6 @@
       </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8821,7 +8656,6 @@
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8878,7 +8712,6 @@
       </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8935,7 +8768,6 @@
       </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8992,7 +8824,6 @@
       </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9049,7 +8880,6 @@
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9106,7 +8936,6 @@
       </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9163,7 +8992,6 @@
       </c>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9220,7 +9048,6 @@
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9277,7 +9104,6 @@
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9334,7 +9160,6 @@
       </c>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9391,7 +9216,6 @@
       </c>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9448,7 +9272,6 @@
       </c>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
